--- a/Ligas/Liga_brasil_2025.xlsx
+++ b/Ligas/Liga_brasil_2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F3E5D0-93FD-4E22-83CB-8A77688840E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9657EB6-E092-47FC-BF2F-CD5BBC2665D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
@@ -4786,7 +4786,7 @@
         <v>30</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" ref="S67:S130" si="1">IF(D67 &gt; E67, "L", IF(D67 &lt; E67, "V", "E"))</f>
+        <f t="shared" ref="S67:S121" si="1">IF(D67 &gt; E67, "L", IF(D67 &lt; E67, "V", "E"))</f>
         <v>L</v>
       </c>
     </row>
@@ -8032,5 +8032,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <ignoredErrors>
+    <ignoredError sqref="Q2:R121" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Ligas/Liga_brasil_2025.xlsx
+++ b/Ligas/Liga_brasil_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S128"/>
+  <dimension ref="A1:S144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9067,6 +9067,1142 @@
         </is>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>1</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1351191</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>5</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>1</v>
+      </c>
+      <c r="P129" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Vasco DA Gama</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>1</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1351184</v>
+      </c>
+      <c r="G130" t="n">
+        <v>12</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1</v>
+      </c>
+      <c r="P130" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>64%</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>36%</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>3</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1351187</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9</v>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>3</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>2</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1351186</v>
+      </c>
+      <c r="G132" t="n">
+        <v>6</v>
+      </c>
+      <c r="H132" t="n">
+        <v>5</v>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>1</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1351189</v>
+      </c>
+      <c r="G133" t="n">
+        <v>7</v>
+      </c>
+      <c r="H133" t="n">
+        <v>5</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>1</v>
+      </c>
+      <c r="P133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1351188</v>
+      </c>
+      <c r="G134" t="n">
+        <v>8</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>4</v>
+      </c>
+      <c r="P134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>RB Bragantino</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>1</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1351190</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>28%</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>72%</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>3</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1351185</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>3</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>3</v>
+      </c>
+      <c r="P136" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>58%</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>42%</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1351192</v>
+      </c>
+      <c r="G137" t="n">
+        <v>6</v>
+      </c>
+      <c r="H137" t="n">
+        <v>4</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1351183</v>
+      </c>
+      <c r="G138" t="n">
+        <v>8</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+      <c r="I138" t="n">
+        <v>3</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>34%</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>1</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1351193</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>1</v>
+      </c>
+      <c r="P139" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1351201</v>
+      </c>
+      <c r="G140" t="n">
+        <v>14</v>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>56%</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>44%</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1351195</v>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>47%</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>53%</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1351196</v>
+      </c>
+      <c r="G142" t="n">
+        <v>8</v>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1</v>
+      </c>
+      <c r="P142" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1351200</v>
+      </c>
+      <c r="G143" t="n">
+        <v>6</v>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
+        <v>2</v>
+      </c>
+      <c r="P143" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>RB Bragantino</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1351197</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>5</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>1</v>
+      </c>
+      <c r="P144" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Liga_brasil_2025.xlsx
+++ b/Ligas/Liga_brasil_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:W175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,16 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local ().2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita ().2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +618,8 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +689,8 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +760,8 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +831,8 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +902,8 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +973,8 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1044,8 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1115,8 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1186,8 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1257,8 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1328,8 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1399,8 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1470,8 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1541,8 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1612,8 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1683,8 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1754,8 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1825,8 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1896,8 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +1967,8 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2038,8 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2109,8 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2180,8 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2251,8 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2322,8 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2393,8 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2464,8 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2535,8 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2606,8 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2677,8 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2748,8 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2819,8 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2890,8 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +2961,8 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3032,8 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3103,8 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3174,8 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3245,8 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3316,8 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3387,8 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3458,8 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3529,8 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3600,8 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3671,8 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3742,8 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3813,8 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3884,8 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +3955,8 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4026,8 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4097,8 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4168,8 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4239,8 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4310,8 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4381,8 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4452,8 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4523,8 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4594,8 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4665,8 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4736,8 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4807,8 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +4878,8 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +4949,8 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5020,8 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5091,8 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5162,8 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5233,8 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5304,8 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5375,8 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5446,8 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5517,8 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5588,8 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5659,8 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5730,8 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5801,8 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +5872,8 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +5943,8 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6014,8 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6085,8 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6156,8 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6227,8 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6298,8 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6369,8 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6440,8 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6511,8 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6582,8 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6653,8 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6724,8 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6795,8 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +6866,8 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +6937,8 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7008,8 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7079,8 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7150,8 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7221,8 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7292,8 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7363,8 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7434,8 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7505,8 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7576,8 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7647,8 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7718,8 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +7789,8 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +7860,8 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +7931,8 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8002,8 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8073,8 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8144,8 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8215,8 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8286,8 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8357,8 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8428,8 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8499,8 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8570,8 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8641,8 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8712,8 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +8783,8 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +8854,8 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8681,6 +8925,8 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +8996,8 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8819,6 +9067,8 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8864,13 +9114,13 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P122" t="n">
         <v>0</v>
@@ -8888,6 +9138,8 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8957,6 +9209,8 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9280,8 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9095,6 +9351,8 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9164,6 +9422,8 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9209,16 +9469,16 @@
         <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q127" t="n">
         <v>48</v>
@@ -9233,6 +9493,8 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9281,13 +9543,13 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O128" t="n">
         <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q128" t="n">
         <v>70</v>
@@ -9302,6 +9564,8 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9347,13 +9611,13 @@
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
         <v>1</v>
@@ -9371,6 +9635,8 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9440,6 +9706,8 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9509,6 +9777,8 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9554,13 +9824,13 @@
         <v>0</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P132" t="n">
         <v>0</v>
@@ -9578,6 +9848,8 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9623,13 +9895,13 @@
         <v>0</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
       </c>
       <c r="O133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P133" t="n">
         <v>0</v>
@@ -9647,6 +9919,8 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9692,13 +9966,13 @@
         <v>0</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
       </c>
       <c r="O134" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
@@ -9716,6 +9990,8 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9761,13 +10037,13 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
       </c>
       <c r="O135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" t="n">
         <v>0</v>
@@ -9785,6 +10061,8 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9830,16 +10108,16 @@
         <v>0</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q136" t="n">
         <v>58</v>
@@ -9854,6 +10132,8 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10203,8 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10274,8 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10037,16 +10321,16 @@
         <v>1</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q139" t="n">
         <v>54</v>
@@ -10061,6 +10345,8 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10109,13 +10395,13 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
         <v>0</v>
       </c>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="n">
         <v>56</v>
@@ -10130,6 +10416,8 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10487,8 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10247,13 +10537,13 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142" t="n">
         <v>1</v>
       </c>
       <c r="P142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q142" t="n">
         <v>65</v>
@@ -10268,6 +10558,8 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10337,6 +10629,8 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10406,6 +10700,8 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -10451,13 +10747,13 @@
         <v>0</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P145" t="n">
         <v>1</v>
@@ -10475,6 +10771,8 @@
       </c>
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -10520,13 +10818,13 @@
         <v>1</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
       </c>
       <c r="O146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P146" t="n">
         <v>2</v>
@@ -10544,6 +10842,8 @@
       </c>
       <c r="T146" t="inlineStr"/>
       <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -10589,16 +10889,16 @@
         <v>0</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O147" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147" t="n">
         <v>42</v>
@@ -10613,6 +10913,8 @@
       </c>
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -10658,16 +10960,16 @@
         <v>0</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q148" t="n">
         <v>50</v>
@@ -10682,6 +10984,8 @@
       </c>
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10727,13 +11031,13 @@
         <v>0</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
       </c>
       <c r="O149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P149" t="n">
         <v>0</v>
@@ -10751,6 +11055,8 @@
       </c>
       <c r="T149" t="inlineStr"/>
       <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10796,13 +11102,13 @@
         <v>0</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
       </c>
       <c r="O150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P150" t="n">
         <v>1</v>
@@ -10820,6 +11126,8 @@
       </c>
       <c r="T150" t="inlineStr"/>
       <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10865,16 +11173,16 @@
         <v>0</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q151" t="n">
         <v>64</v>
@@ -10889,6 +11197,8 @@
       </c>
       <c r="T151" t="inlineStr"/>
       <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10934,13 +11244,13 @@
         <v>1</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
       </c>
       <c r="O152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P152" t="n">
         <v>0</v>
@@ -10958,6 +11268,8 @@
       </c>
       <c r="T152" t="inlineStr"/>
       <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11006,13 +11318,13 @@
         <v>0</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="n">
         <v>1</v>
       </c>
       <c r="P153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q153" t="n">
         <v>56</v>
@@ -11027,6 +11339,8 @@
       </c>
       <c r="T153" t="inlineStr"/>
       <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11096,6 +11410,8 @@
       </c>
       <c r="T154" t="inlineStr"/>
       <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11141,16 +11457,16 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q155" t="n">
         <v>41</v>
@@ -11165,6 +11481,8 @@
       </c>
       <c r="T155" t="inlineStr"/>
       <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11234,6 +11552,8 @@
       </c>
       <c r="T156" t="inlineStr"/>
       <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11303,6 +11623,8 @@
       </c>
       <c r="T157" t="inlineStr"/>
       <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11348,13 +11670,13 @@
         <v>0</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
       </c>
       <c r="O158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P158" t="n">
         <v>0</v>
@@ -11372,6 +11694,8 @@
       </c>
       <c r="T158" t="inlineStr"/>
       <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11420,13 +11744,13 @@
         <v>0</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O159" t="n">
         <v>0</v>
       </c>
       <c r="P159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q159" t="n">
         <v>56</v>
@@ -11441,6 +11765,8 @@
       </c>
       <c r="T159" t="inlineStr"/>
       <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11489,13 +11815,13 @@
         <v>0</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O160" t="n">
         <v>1</v>
       </c>
       <c r="P160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q160" t="n">
         <v>68</v>
@@ -11510,6 +11836,8 @@
       </c>
       <c r="T160" t="inlineStr"/>
       <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11558,13 +11886,13 @@
         <v>0</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" t="n">
         <v>1</v>
       </c>
       <c r="P161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q161" t="n">
         <v>32</v>
@@ -11579,6 +11907,8 @@
       </c>
       <c r="T161" t="inlineStr"/>
       <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11624,13 +11954,13 @@
         <v>1</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
       </c>
       <c r="O162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P162" t="n">
         <v>1</v>
@@ -11648,6 +11978,8 @@
       </c>
       <c r="T162" t="inlineStr"/>
       <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11693,13 +12025,13 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
       </c>
       <c r="O163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P163" t="n">
         <v>2</v>
@@ -11717,6 +12049,8 @@
       </c>
       <c r="T163" t="inlineStr"/>
       <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11765,13 +12099,13 @@
         <v>0</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O164" t="n">
         <v>1</v>
       </c>
       <c r="P164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q164" t="n">
         <v>52</v>
@@ -11786,6 +12120,8 @@
       </c>
       <c r="T164" t="inlineStr"/>
       <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11831,16 +12167,16 @@
         <v>0</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O165" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q165" t="n">
         <v>50</v>
@@ -11855,6 +12191,718 @@
       </c>
       <c r="T165" t="inlineStr"/>
       <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>2</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1351226</v>
+      </c>
+      <c r="G166" t="n">
+        <v>4</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+      <c r="I166" t="n">
+        <v>3</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>1</v>
+      </c>
+      <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>56</v>
+      </c>
+      <c r="R166" t="n">
+        <v>44</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Flamengo</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>2</v>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1351223</v>
+      </c>
+      <c r="G167" t="n">
+        <v>11</v>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>49</v>
+      </c>
+      <c r="R167" t="n">
+        <v>51</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>RB Bragantino</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1351227</v>
+      </c>
+      <c r="G168" t="n">
+        <v>8</v>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>2</v>
+      </c>
+      <c r="O168" t="n">
+        <v>1</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>50</v>
+      </c>
+      <c r="R168" t="n">
+        <v>50</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Fortaleza EC</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Botafogo</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1351231</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>2</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>43</v>
+      </c>
+      <c r="R169" t="n">
+        <v>57</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Fluminense</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>3</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1351230</v>
+      </c>
+      <c r="G170" t="n">
+        <v>8</v>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+      <c r="O170" t="n">
+        <v>1</v>
+      </c>
+      <c r="P170" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>60</v>
+      </c>
+      <c r="R170" t="n">
+        <v>40</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>2</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1351225</v>
+      </c>
+      <c r="G171" t="n">
+        <v>3</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>3</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>2</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>62</v>
+      </c>
+      <c r="R171" t="n">
+        <v>38</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Vasco DA Gama</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Atletico-MG</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1351224</v>
+      </c>
+      <c r="G172" t="n">
+        <v>6</v>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>55</v>
+      </c>
+      <c r="R172" t="n">
+        <v>45</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>1</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1351228</v>
+      </c>
+      <c r="G173" t="n">
+        <v>15</v>
+      </c>
+      <c r="H173" t="n">
+        <v>3</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>4</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>57</v>
+      </c>
+      <c r="R173" t="n">
+        <v>43</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Gremio</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1351229</v>
+      </c>
+      <c r="G174" t="n">
+        <v>3</v>
+      </c>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
+      <c r="I174" t="n">
+        <v>2</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>59</v>
+      </c>
+      <c r="R174" t="n">
+        <v>41</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Corinthians</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1351232</v>
+      </c>
+      <c r="G175" t="n">
+        <v>3</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>6</v>
+      </c>
+      <c r="J175" t="n">
+        <v>5</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>1</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>37</v>
+      </c>
+      <c r="R175" t="n">
+        <v>63</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
